--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.5-20-4.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.5-20-4.xlsx
@@ -40,13 +40,13 @@
     <t>requestCost</t>
   </si>
   <si>
+    <t>A,C</t>
+  </si>
+  <si>
     <t>A,B</t>
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>A,C</t>
   </si>
   <si>
     <t>C,D</t>
@@ -441,22 +441,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>524</v>
+        <v>419</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>524</v>
+        <v>419</v>
       </c>
       <c r="F2">
-        <v>802</v>
+        <v>2203</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,129 +467,129 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>641</v>
+        <v>459</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>641</v>
+        <v>459</v>
       </c>
       <c r="F3">
-        <v>945</v>
+        <v>550</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>502</v>
+      </c>
+      <c r="C4">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>806</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
       <c r="D4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>806</v>
+        <v>502</v>
       </c>
       <c r="F4">
-        <v>1908</v>
+        <v>609</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>949</v>
+        <v>694</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>949</v>
+        <v>694</v>
       </c>
       <c r="F5">
-        <v>2513</v>
+        <v>2189</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>989</v>
+        <v>724</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>989</v>
+        <v>724</v>
       </c>
       <c r="F6">
-        <v>1191</v>
+        <v>867</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>1188</v>
+        <v>833</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>1188</v>
+        <v>833</v>
       </c>
       <c r="F7">
-        <v>1440</v>
+        <v>2261</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -597,25 +597,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>1356</v>
+        <v>889</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>1356</v>
+        <v>889</v>
       </c>
       <c r="F8">
-        <v>1590</v>
+        <v>2103</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -623,51 +623,51 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1411</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>2197</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
-      </c>
       <c r="D9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E9">
-        <v>2197</v>
+        <v>1411</v>
       </c>
       <c r="F9">
-        <v>3570</v>
+        <v>2593</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>2401</v>
+        <v>1660</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>2401</v>
+        <v>1660</v>
       </c>
       <c r="F10">
-        <v>2662</v>
+        <v>1803</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -675,51 +675,51 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>2413</v>
+        <v>2247</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>2413</v>
+        <v>2247</v>
       </c>
       <c r="F11">
-        <v>2656</v>
+        <v>2363</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>2430</v>
+        <v>2362</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>2430</v>
+        <v>2362</v>
       </c>
       <c r="F12">
-        <v>2585</v>
+        <v>3842</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -727,51 +727,51 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>2625</v>
+        <v>2387</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2625</v>
+        <v>2387</v>
       </c>
       <c r="F13">
-        <v>2889</v>
+        <v>4146</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>2742</v>
+        <v>2439</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>2742</v>
+        <v>2439</v>
       </c>
       <c r="F14">
-        <v>2940</v>
+        <v>3453</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -779,77 +779,77 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>2814</v>
+        <v>2440</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>2814</v>
+        <v>2440</v>
       </c>
       <c r="F15">
-        <v>2986</v>
+        <v>3593</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2502</v>
+      </c>
+      <c r="C16">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>2502</v>
+      </c>
+      <c r="F16">
+        <v>3515</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
         <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2967</v>
-      </c>
-      <c r="C16">
-        <v>35</v>
-      </c>
-      <c r="D16">
-        <v>33</v>
-      </c>
-      <c r="E16">
-        <v>2967</v>
-      </c>
-      <c r="F16">
-        <v>4719</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>2975</v>
+        <v>2816</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>2975</v>
+        <v>2816</v>
       </c>
       <c r="F17">
-        <v>3969</v>
+        <v>4152</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -857,25 +857,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>3208</v>
+        <v>3273</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>3208</v>
+        <v>3273</v>
       </c>
       <c r="F18">
-        <v>4718</v>
+        <v>3404</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -883,80 +883,80 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>3330</v>
+        <v>3285</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3330</v>
+        <v>3285</v>
       </c>
       <c r="F19">
-        <v>5041</v>
+        <v>3375</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>3434</v>
+        <v>3430</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>3434</v>
+        <v>3430</v>
       </c>
       <c r="F20">
-        <v>4843</v>
+        <v>4620</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>3474</v>
+        <v>3504</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>3474</v>
+        <v>3504</v>
       </c>
       <c r="F21">
-        <v>4425</v>
+        <v>3640</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
